--- a/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
+++ b/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -709,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,15 +1785,15 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D44:D49)</f>
-        <v>0</v>
-      </c>
-      <c r="E43" s="8" t="e">
+        <v>2</v>
+      </c>
+      <c r="E43" s="8">
         <f>AVERAGE(E44:E49)</f>
-        <v>#DIV/0!</v>
+        <v>60</v>
       </c>
       <c r="F43" s="6">
         <f>SUM(F44:F49)</f>
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="15">
@@ -1877,11 +1878,15 @@
       <c r="C47" s="2">
         <v>6</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>60</v>
+      </c>
       <c r="F47" s="2">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="2">
@@ -2175,7 +2180,6 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="F6 E17:F17 E26:F26 E33:F33 E38:F38 F43 E50:F50" formula="1"/>
-    <ignoredError sqref="E43" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
+++ b/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -710,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,7 +1784,7 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D44:D49)</f>
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="E43" s="8">
         <f>AVERAGE(E44:E49)</f>
@@ -1793,7 +1792,7 @@
       </c>
       <c r="F43" s="6">
         <f>SUM(F44:F49)</f>
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="15">
@@ -1812,11 +1811,13 @@
       <c r="C44" s="4">
         <v>24</v>
       </c>
-      <c r="D44" s="4"/>
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4">
         <f t="shared" ref="F44:F49" si="5">(C44-D44)</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2">
@@ -1834,11 +1835,13 @@
       <c r="C45" s="2">
         <v>30</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" s="2">
+        <v>10</v>
+      </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="2">
@@ -1856,11 +1859,13 @@
       <c r="C46" s="2">
         <v>60</v>
       </c>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2">
+        <v>5</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="2">

--- a/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
+++ b/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
@@ -709,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1784,15 +1784,15 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D44:D49)</f>
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E43" s="8">
         <f>AVERAGE(E44:E49)</f>
-        <v>60</v>
+        <v>41.25</v>
       </c>
       <c r="F43" s="6">
         <f>SUM(F44:F49)</f>
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="15">
@@ -1812,12 +1812,14 @@
         <v>24</v>
       </c>
       <c r="D44" s="4">
-        <v>6</v>
-      </c>
-      <c r="E44" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="E44" s="4">
+        <v>45</v>
+      </c>
       <c r="F44" s="4">
         <f t="shared" ref="F44:F49" si="5">(C44-D44)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2">
@@ -1836,12 +1838,14 @@
         <v>30</v>
       </c>
       <c r="D45" s="2">
-        <v>10</v>
-      </c>
-      <c r="E45" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="2">
+        <v>40</v>
+      </c>
       <c r="F45" s="2">
         <f t="shared" si="5"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="2">
@@ -1860,12 +1864,14 @@
         <v>60</v>
       </c>
       <c r="D46" s="2">
-        <v>5</v>
-      </c>
-      <c r="E46" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E46" s="2">
+        <v>20</v>
+      </c>
       <c r="F46" s="2">
         <f t="shared" si="5"/>
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="2">

--- a/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
+++ b/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>TACHES</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>ECART (H)</t>
+  </si>
+  <si>
+    <t>ESTIMATION CORRIGEE LE 08/12</t>
   </si>
 </sst>
 </file>
@@ -388,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -406,6 +409,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,9 +729,12 @@
     <col min="7" max="7" width="3.7109375" style="13" customWidth="1"/>
     <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,8 +757,14 @@
       <c r="I2" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
@@ -775,8 +789,15 @@
         <f>H3-C3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3" s="14">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2">
+        <f>K3-$C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -797,8 +818,15 @@
         <f t="shared" ref="I4:I58" si="1">H4-C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L58" si="2">K4-$C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
@@ -819,8 +847,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
@@ -846,11 +881,19 @@
         <v>97</v>
       </c>
       <c r="I6" s="16">
-        <f t="shared" si="1"/>
+        <f>H6-C6</f>
         <v>-6</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="15">
+        <f>SUM(K7:K16)</f>
+        <v>97</v>
+      </c>
+      <c r="L6" s="18">
+        <f t="shared" si="2"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -864,7 +907,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F16" si="2">(C7-D7)</f>
+        <f t="shared" ref="F7:F16" si="3">(C7-D7)</f>
         <v>4</v>
       </c>
       <c r="G7" s="12"/>
@@ -875,8 +918,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="14">
+        <v>40</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -890,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G8" s="12"/>
@@ -901,8 +951,15 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="14">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -916,7 +973,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9" s="12"/>
@@ -927,8 +984,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K9" s="14">
+        <v>3</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -942,7 +1006,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="G10" s="12"/>
@@ -953,8 +1017,15 @@
         <f t="shared" si="1"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10" s="14">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="2"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -968,7 +1039,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="12"/>
@@ -979,8 +1050,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K11" s="14">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
@@ -990,7 +1068,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G12" s="12"/>
@@ -1001,8 +1079,15 @@
         <f t="shared" si="1"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K12" s="14">
+        <v>3</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1101,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G13" s="12"/>
@@ -1027,8 +1112,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13" s="14">
+        <v>18</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1042,7 +1134,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G14" s="12"/>
@@ -1053,8 +1145,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K14" s="14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1068,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G15" s="12"/>
@@ -1079,8 +1178,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K15" s="14">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1094,7 +1200,7 @@
         <v>60</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5</v>
       </c>
       <c r="G16" s="12"/>
@@ -1105,8 +1211,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="14">
+        <v>3</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1135,8 +1248,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="15">
+        <f>SUM(K18:K25)</f>
+        <v>9.1</v>
+      </c>
+      <c r="L17" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1150,7 +1271,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:F25" si="3">(C18-D18)</f>
+        <f t="shared" ref="F18:F25" si="4">(C18-D18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="12"/>
@@ -1161,8 +1282,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="14">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G19" s="12"/>
@@ -1187,8 +1315,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="14">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1337,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
@@ -1213,8 +1348,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K20" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1228,7 +1370,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G21" s="12"/>
@@ -1239,8 +1381,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1254,7 +1403,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G22" s="12"/>
@@ -1265,8 +1414,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1280,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="12"/>
@@ -1291,8 +1447,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K23" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1306,7 +1469,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G24" s="12"/>
@@ -1317,8 +1480,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K24" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1332,7 +1502,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G25" s="12"/>
@@ -1343,8 +1513,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K25" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1354,7 +1531,7 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D27:D32)</f>
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E26" s="8">
         <f>AVERAGE(E27:E32)</f>
@@ -1362,7 +1539,7 @@
       </c>
       <c r="F26" s="6">
         <f>SUM(F27:F32)</f>
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="15">
@@ -1373,8 +1550,16 @@
         <f t="shared" si="1"/>
         <v>-7</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K26" s="15">
+        <f>SUM(K27:K32)</f>
+        <v>46</v>
+      </c>
+      <c r="L26" s="18">
+        <f t="shared" si="2"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
@@ -1384,7 +1569,7 @@
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4">
-        <f t="shared" ref="F27:F32" si="4">(C27-D27)</f>
+        <f t="shared" ref="F27:F32" si="5">(C27-D27)</f>
         <v>12</v>
       </c>
       <c r="G27" s="11"/>
@@ -1395,19 +1580,28 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K27" s="2">
+        <v>12</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
         <v>18</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2">
-        <f t="shared" si="4"/>
-        <v>18</v>
+        <f t="shared" si="5"/>
+        <v>13</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="2">
@@ -1417,8 +1611,15 @@
         <f t="shared" si="1"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="2">
+        <v>15</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="2"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
@@ -1428,7 +1629,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G29" s="11"/>
@@ -1439,8 +1640,15 @@
         <f t="shared" si="1"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K29" s="2">
+        <v>10</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
@@ -1454,7 +1662,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G30" s="12"/>
@@ -1465,8 +1673,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K30" s="14">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1480,7 +1695,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G31" s="12"/>
@@ -1491,8 +1706,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K31" s="14">
+        <v>4</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
@@ -1506,7 +1728,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G32" s="12"/>
@@ -1517,8 +1739,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K32" s="14">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>57</v>
       </c>
@@ -1547,8 +1776,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K33" s="15">
+        <f>SUM(K34:K37)</f>
+        <v>64</v>
+      </c>
+      <c r="L33" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
@@ -1573,8 +1810,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K34" s="14">
+        <v>24</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>44</v>
       </c>
@@ -1595,8 +1839,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K35" s="14">
+        <v>20</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
@@ -1617,8 +1868,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K36" s="14">
+        <v>10</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>53</v>
       </c>
@@ -1639,8 +1897,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K37" s="14">
+        <v>10</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>59</v>
       </c>
@@ -1669,8 +1934,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K38" s="15">
+        <f>SUM(K39:K42)</f>
+        <v>10</v>
+      </c>
+      <c r="L38" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
@@ -1695,8 +1968,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K39" s="14">
+        <v>2</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
         <v>50</v>
       </c>
@@ -1721,8 +2001,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K40" s="14">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>51</v>
       </c>
@@ -1747,8 +2034,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K41" s="14">
+        <v>6</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>49</v>
       </c>
@@ -1773,8 +2067,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K42" s="14">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>60</v>
       </c>
@@ -1784,15 +2085,15 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D44:D49)</f>
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="E43" s="8">
         <f>AVERAGE(E44:E49)</f>
-        <v>41.25</v>
+        <v>75</v>
       </c>
       <c r="F43" s="6">
         <f>SUM(F44:F49)</f>
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="15">
@@ -1803,8 +2104,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K43" s="15">
+        <f>SUM(K44:K49)</f>
+        <v>251</v>
+      </c>
+      <c r="L43" s="18">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>33</v>
       </c>
@@ -1812,14 +2121,14 @@
         <v>24</v>
       </c>
       <c r="D44" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" ref="F44:F49" si="5">(C44-D44)</f>
-        <v>13</v>
+        <f t="shared" ref="F44:F49" si="6">(C44-D44)</f>
+        <v>4</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2">
@@ -1829,8 +2138,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K44" s="2">
+        <v>30</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
@@ -1838,14 +2154,14 @@
         <v>30</v>
       </c>
       <c r="D45" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E45" s="2">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="5"/>
-        <v>16</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="2">
@@ -1855,8 +2171,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K45" s="2">
+        <v>40</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
@@ -1864,14 +2187,14 @@
         <v>60</v>
       </c>
       <c r="D46" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E46" s="2">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="5"/>
-        <v>50</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="2">
@@ -1881,8 +2204,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <v>50</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="2"/>
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
@@ -1890,14 +2220,14 @@
         <v>6</v>
       </c>
       <c r="D47" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E47" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>3</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="2">
@@ -1907,8 +2237,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K47" s="2">
+        <v>6</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="17"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
@@ -1918,7 +2256,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="G48" s="11"/>
@@ -1929,8 +2267,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K48" s="2">
+        <v>120</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
@@ -1940,7 +2285,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="G49" s="11"/>
@@ -1951,8 +2296,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K49" s="2">
+        <v>5</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>58</v>
       </c>
@@ -1981,8 +2333,16 @@
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K50" s="15">
+        <f>SUM(K51:K58)</f>
+        <v>22.5</v>
+      </c>
+      <c r="L50" s="18">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -1996,7 +2356,7 @@
         <v>100</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ref="F51:F58" si="6">(C51-D51)</f>
+        <f t="shared" ref="F51:F58" si="7">(C51-D51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="12"/>
@@ -2007,8 +2367,15 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K51" s="14">
+        <v>8</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2022,7 +2389,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G52" s="12"/>
@@ -2033,8 +2400,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K52" s="14">
+        <v>1</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2422,7 @@
         <v>100</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G53" s="12"/>
@@ -2059,8 +2433,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K53" s="14">
+        <v>1</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2074,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G54" s="12"/>
@@ -2085,8 +2466,15 @@
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K54" s="14">
+        <v>3</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2100,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G55" s="12"/>
@@ -2111,8 +2499,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K55" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>38</v>
       </c>
@@ -2126,7 +2521,7 @@
         <v>100</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G56" s="12"/>
@@ -2137,8 +2532,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K56" s="14">
+        <v>2</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>39</v>
       </c>
@@ -2152,7 +2554,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G57" s="12"/>
@@ -2163,8 +2565,15 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K57" s="14">
+        <v>2</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>40</v>
       </c>
@@ -2174,7 +2583,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G58" s="12"/>
@@ -2183,6 +2592,13 @@
       </c>
       <c r="I58" s="2">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="14">
+        <v>2</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2190,7 +2606,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F6 E17:F17 E26:F26 E33:F33 E38:F38 F43 E50:F50" formula="1"/>
+    <ignoredError sqref="F6 E17:F17 E26:F26 E33:F33 E38:F38 E43:F43 E50:F50" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
+++ b/documents/PMP/Suivi_du_projet/Tableau_charges.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="17655" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>TACHES</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>ESTIMATION CORRIGEE LE 08/12</t>
+  </si>
+  <si>
+    <t>ESTIMATION CORRIGEE LE 03/01</t>
   </si>
 </sst>
 </file>
@@ -714,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N53" sqref="N53:N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,9 +735,12 @@
     <col min="10" max="10" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="3.28515625" customWidth="1"/>
+    <col min="14" max="14" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,8 +769,14 @@
       <c r="L2" s="9" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N2" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>29</v>
       </c>
@@ -796,8 +808,15 @@
         <f>K3-$C3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N3" s="14">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2">
+        <f>N3-$C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>46</v>
       </c>
@@ -825,8 +844,15 @@
         <f t="shared" ref="L4:L58" si="2">K4-$C4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>1</v>
+      </c>
+      <c r="O4" s="2">
+        <f t="shared" ref="O4:O58" si="3">N4-$C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>47</v>
       </c>
@@ -854,8 +880,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>3</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>54</v>
       </c>
@@ -865,15 +898,15 @@
       </c>
       <c r="D6" s="5">
         <f>SUM(D7:D16)</f>
-        <v>75.5</v>
+        <v>85</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(E7:E16)</f>
-        <v>76.666666666666671</v>
+        <v>98</v>
       </c>
       <c r="F6" s="6">
         <f xml:space="preserve"> SUM(F7:F16)</f>
-        <v>27.5</v>
+        <v>18</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="15">
@@ -892,8 +925,16 @@
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N6" s="15">
+        <f>SUM(N7:N16)</f>
+        <v>97</v>
+      </c>
+      <c r="O6" s="18">
+        <f t="shared" si="3"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
@@ -907,7 +948,7 @@
         <v>100</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" ref="F7:F16" si="3">(C7-D7)</f>
+        <f t="shared" ref="F7:F16" si="4">(C7-D7)</f>
         <v>4</v>
       </c>
       <c r="G7" s="12"/>
@@ -925,8 +966,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N7" s="14">
+        <v>40</v>
+      </c>
+      <c r="O7" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
@@ -934,14 +982,14 @@
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E8" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>-0.5</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="14">
@@ -958,8 +1006,15 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="14">
+        <v>2</v>
+      </c>
+      <c r="O8" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
@@ -970,10 +1025,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G9" s="12"/>
@@ -991,8 +1046,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="14">
+        <v>3</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1006,7 +1068,7 @@
         <v>100</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G10" s="12"/>
@@ -1024,8 +1086,15 @@
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N10" s="14">
+        <v>21</v>
+      </c>
+      <c r="O10" s="2">
+        <f t="shared" si="3"/>
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>27</v>
       </c>
@@ -1039,7 +1108,7 @@
         <v>100</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="12"/>
@@ -1057,19 +1126,30 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N11" s="14">
+        <v>1</v>
+      </c>
+      <c r="O11" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>6</v>
       </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
+        <v>100</v>
+      </c>
       <c r="F12" s="2">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="14">
@@ -1086,8 +1166,15 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N12" s="14">
+        <v>3</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1188,7 @@
         <v>100</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G13" s="12"/>
@@ -1119,8 +1206,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N13" s="14">
+        <v>18</v>
+      </c>
+      <c r="O13" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
@@ -1134,7 +1228,7 @@
         <v>100</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="12"/>
@@ -1152,8 +1246,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N14" s="14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
@@ -1161,14 +1262,14 @@
         <v>3</v>
       </c>
       <c r="D15" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>-4</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="14">
@@ -1185,8 +1286,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N15" s="14">
+        <v>3</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
@@ -1197,10 +1305,10 @@
         <v>1.5</v>
       </c>
       <c r="E16" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.5</v>
       </c>
       <c r="G16" s="12"/>
@@ -1218,8 +1326,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N16" s="14">
+        <v>3</v>
+      </c>
+      <c r="O16" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1256,8 +1371,16 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N17" s="15">
+        <f>SUM(N18:N25)</f>
+        <v>9.1</v>
+      </c>
+      <c r="O17" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1394,7 @@
         <v>100</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" ref="F18:F25" si="4">(C18-D18)</f>
+        <f t="shared" ref="F18:F25" si="5">(C18-D18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="12"/>
@@ -1289,8 +1412,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N18" s="14">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1434,7 @@
         <v>100</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G19" s="12"/>
@@ -1322,8 +1452,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N19" s="14">
+        <v>2</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
@@ -1337,7 +1474,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G20" s="12"/>
@@ -1355,8 +1492,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N20" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O20" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1370,7 +1514,7 @@
         <v>100</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G21" s="12"/>
@@ -1388,8 +1532,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N21" s="14">
+        <v>1</v>
+      </c>
+      <c r="O21" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>15</v>
       </c>
@@ -1403,7 +1554,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="12"/>
@@ -1421,8 +1572,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N22" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1436,7 +1594,7 @@
         <v>100</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G23" s="12"/>
@@ -1454,8 +1612,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N23" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="O23" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1469,7 +1634,7 @@
         <v>100</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G24" s="12"/>
@@ -1487,8 +1652,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N24" s="14">
+        <v>1.5</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1502,7 +1674,7 @@
         <v>100</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G25" s="12"/>
@@ -1520,8 +1692,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N25" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="O25" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>56</v>
       </c>
@@ -1531,15 +1710,15 @@
       </c>
       <c r="D26" s="5">
         <f>SUM(D27:D32)</f>
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="E26" s="8">
         <f>AVERAGE(E27:E32)</f>
-        <v>100</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="F26" s="6">
         <f>SUM(F27:F32)</f>
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="15">
@@ -1558,19 +1737,31 @@
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N26" s="15">
+        <f>SUM(N27:N32)</f>
+        <v>46</v>
+      </c>
+      <c r="O26" s="18">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="4">
         <v>12</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4">
+        <v>20</v>
+      </c>
       <c r="F27" s="4">
-        <f t="shared" ref="F27:F32" si="5">(C27-D27)</f>
-        <v>12</v>
+        <f t="shared" ref="F27:F32" si="6">(C27-D27)</f>
+        <v>10</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="2">
@@ -1587,8 +1778,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <v>12</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1596,12 +1794,14 @@
         <v>18</v>
       </c>
       <c r="D28" s="2">
-        <v>5</v>
-      </c>
-      <c r="E28" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="E28" s="2">
+        <v>50</v>
+      </c>
       <c r="F28" s="2">
-        <f t="shared" si="5"/>
-        <v>13</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="2">
@@ -1618,19 +1818,30 @@
         <f t="shared" si="2"/>
         <v>-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>15</v>
+      </c>
+      <c r="O28" s="2">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
         <v>12</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2">
+        <v>30</v>
+      </c>
       <c r="F29" s="2">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="2">
@@ -1647,8 +1858,15 @@
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>10</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +1880,7 @@
         <v>100</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G30" s="12"/>
@@ -1680,8 +1898,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N30" s="14">
+        <v>4</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>18</v>
       </c>
@@ -1695,7 +1920,7 @@
         <v>100</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G31" s="12"/>
@@ -1713,8 +1938,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N31" s="14">
+        <v>4</v>
+      </c>
+      <c r="O31" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>20</v>
       </c>
@@ -1728,7 +1960,7 @@
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G32" s="12"/>
@@ -1744,6 +1976,13 @@
       </c>
       <c r="L32" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="14">
+        <v>1</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1784,6 +2023,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N33" s="15">
+        <f>SUM(N34:N37)</f>
+        <v>64</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
@@ -1815,6 +2062,13 @@
       </c>
       <c r="L34" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="14">
+        <v>24</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1846,6 +2100,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N35" s="14">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
@@ -1875,6 +2136,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N36" s="14">
+        <v>10</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -1904,6 +2172,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N37" s="14">
+        <v>10</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
@@ -1942,6 +2217,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N38" s="15">
+        <f>SUM(N39:N42)</f>
+        <v>10</v>
+      </c>
+      <c r="O38" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
@@ -1975,6 +2258,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N39" s="14">
+        <v>2</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
@@ -2008,6 +2298,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N40" s="14">
+        <v>1</v>
+      </c>
+      <c r="O40" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
@@ -2041,6 +2338,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N41" s="14">
+        <v>6</v>
+      </c>
+      <c r="O41" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -2074,6 +2378,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N42" s="14">
+        <v>1</v>
+      </c>
+      <c r="O42" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
@@ -2085,15 +2396,15 @@
       </c>
       <c r="D43" s="5">
         <f>SUM(D44:D49)</f>
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="E43" s="8">
         <f>AVERAGE(E44:E49)</f>
-        <v>75</v>
+        <v>93.75</v>
       </c>
       <c r="F43" s="6">
         <f>SUM(F44:F49)</f>
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="15">
@@ -2112,6 +2423,14 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="N43" s="15">
+        <f>SUM(N44:N49)</f>
+        <v>261</v>
+      </c>
+      <c r="O43" s="18">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
@@ -2121,14 +2440,14 @@
         <v>24</v>
       </c>
       <c r="D44" s="4">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E44" s="4">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="F44" s="4">
-        <f t="shared" ref="F44:F49" si="6">(C44-D44)</f>
-        <v>4</v>
+        <f t="shared" ref="F44:F49" si="7">(C44-D44)</f>
+        <v>-6</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="2">
@@ -2145,6 +2464,13 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
+      <c r="N44" s="2">
+        <v>35</v>
+      </c>
+      <c r="O44" s="2">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -2154,14 +2480,14 @@
         <v>30</v>
       </c>
       <c r="D45" s="2">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E45" s="2">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>-2</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="2">
@@ -2178,6 +2504,13 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
+      <c r="N45" s="2">
+        <v>40</v>
+      </c>
+      <c r="O45" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
@@ -2187,14 +2520,14 @@
         <v>60</v>
       </c>
       <c r="D46" s="2">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E46" s="2">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="7"/>
+        <v>14</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="2">
@@ -2211,6 +2544,13 @@
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
+      <c r="N46" s="2">
+        <v>55</v>
+      </c>
+      <c r="O46" s="2">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
@@ -2226,7 +2566,7 @@
         <v>100</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G47" s="11"/>
@@ -2244,6 +2584,13 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="N47" s="2">
+        <v>6</v>
+      </c>
+      <c r="O47" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="P47" s="17"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
@@ -2256,7 +2603,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="G48" s="11"/>
@@ -2274,8 +2621,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>120</v>
+      </c>
+      <c r="O48" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>52</v>
       </c>
@@ -2285,7 +2639,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G49" s="11"/>
@@ -2303,8 +2657,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>5</v>
+      </c>
+      <c r="O49" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>58</v>
       </c>
@@ -2314,15 +2675,15 @@
       </c>
       <c r="D50" s="5">
         <f>SUM(D51:D58)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="E50" s="8">
         <f>AVERAGE(E51:E58)</f>
-        <v>92.142857142857139</v>
+        <v>100</v>
       </c>
       <c r="F50" s="6">
         <f>SUM(F51:F58)</f>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="15">
@@ -2341,8 +2702,16 @@
         <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N50" s="15">
+        <f>SUM(N51:N58)</f>
+        <v>22.5</v>
+      </c>
+      <c r="O50" s="18">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
@@ -2356,7 +2725,7 @@
         <v>100</v>
       </c>
       <c r="F51" s="4">
-        <f t="shared" ref="F51:F58" si="7">(C51-D51)</f>
+        <f t="shared" ref="F51:F58" si="8">(C51-D51)</f>
         <v>0</v>
       </c>
       <c r="G51" s="12"/>
@@ -2374,8 +2743,15 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N51" s="14">
+        <v>8</v>
+      </c>
+      <c r="O51" s="2">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2389,7 +2765,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G52" s="12"/>
@@ -2407,8 +2783,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N52" s="14">
+        <v>1</v>
+      </c>
+      <c r="O52" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>10</v>
       </c>
@@ -2422,7 +2805,7 @@
         <v>100</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G53" s="12"/>
@@ -2440,8 +2823,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N53" s="14">
+        <v>1</v>
+      </c>
+      <c r="O53" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -2455,7 +2845,7 @@
         <v>100</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G54" s="12"/>
@@ -2473,8 +2863,15 @@
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N54" s="14">
+        <v>3</v>
+      </c>
+      <c r="O54" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
         <v>12</v>
       </c>
@@ -2482,14 +2879,14 @@
         <v>3.5</v>
       </c>
       <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2">
+        <v>100</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="8"/>
         <v>1.5</v>
-      </c>
-      <c r="E55" s="2">
-        <v>45</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="7"/>
-        <v>2</v>
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="14">
@@ -2506,8 +2903,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N55" s="14">
+        <v>3.5</v>
+      </c>
+      <c r="O55" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
         <v>38</v>
       </c>
@@ -2521,7 +2925,7 @@
         <v>100</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G56" s="12"/>
@@ -2539,8 +2943,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N56" s="14">
+        <v>2</v>
+      </c>
+      <c r="O56" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>39</v>
       </c>
@@ -2554,7 +2965,7 @@
         <v>100</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="G57" s="12"/>
@@ -2572,8 +2983,15 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N57" s="14">
+        <v>2</v>
+      </c>
+      <c r="O57" s="2">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>40</v>
       </c>
@@ -2583,7 +3001,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="G58" s="12"/>
@@ -2599,6 +3017,13 @@
       </c>
       <c r="L58" s="2">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="14">
+        <v>2</v>
+      </c>
+      <c r="O58" s="2">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
